--- a/test/output/test_results.xlsx
+++ b/test/output/test_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KTPM2\flutter_shop\test\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EA4E08-2D7C-4E19-95E4-86591DED66E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B883C1E1-F7DC-43B6-8A89-6D9A069C2214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>Test Case</t>
   </si>
@@ -28,16 +28,16 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Duration (ms)</t>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Test 1</t>
   </si>
   <si>
     <t>TC_LOGIN_01</t>
@@ -46,19 +46,31 @@
     <t>Verify login with a non-existent username</t>
   </si>
   <si>
+    <t>wronguser@example.com</t>
+  </si>
+  <si>
+    <t>Pass@123</t>
+  </si>
+  <si>
+    <t>error:Invalid username or password</t>
+  </si>
+  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Login không thành công như dự kiến với wronguser@example.com/Pass@123</t>
-  </si>
-  <si>
     <t>TC_LOGIN_02</t>
   </si>
   <si>
     <t>Verify login with a password missing an uppercase letter</t>
   </si>
   <si>
-    <t>Login không thành công như dự kiến với user@example.com/pass@123</t>
+    <t>user@example.com</t>
+  </si>
+  <si>
+    <t>pass@123</t>
+  </si>
+  <si>
+    <t>error:Password must contain at least one uppercase letter!</t>
   </si>
   <si>
     <t>TC_LOGIN_03</t>
@@ -67,7 +79,10 @@
     <t>Verify login with a password missing a special character</t>
   </si>
   <si>
-    <t>Login không thành công như dự kiến với user@example.com/Pass123</t>
+    <t>Pass123</t>
+  </si>
+  <si>
+    <t>error:Password must contain at least one special character!</t>
   </si>
   <si>
     <t>TC_LOGIN_04</t>
@@ -76,7 +91,10 @@
     <t>Verify login with a password missing a number</t>
   </si>
   <si>
-    <t>Login không thành công như dự kiến với user@example.com/Pass@abc</t>
+    <t>Pass@abc</t>
+  </si>
+  <si>
+    <t>error:Password must contain at least one number!</t>
   </si>
   <si>
     <t>TC_LOGIN_05</t>
@@ -85,7 +103,7 @@
     <t>Verify login with an empty username field</t>
   </si>
   <si>
-    <t>Login không thành công như dự kiến với /Pass@123</t>
+    <t>error:Email cannot be empty!</t>
   </si>
   <si>
     <t>TC_LOGIN_06</t>
@@ -94,7 +112,7 @@
     <t>Verify login with an empty password field</t>
   </si>
   <si>
-    <t>Login không thành công như dự kiến với user@example.com/</t>
+    <t>error:Password cannot be empty!</t>
   </si>
   <si>
     <t>TC_LOGIN_07</t>
@@ -103,16 +121,16 @@
     <t>Verify login with both username and password fields empty</t>
   </si>
   <si>
-    <t>Login không thành công như dự kiến với /</t>
-  </si>
-  <si>
     <t>TC_LOGIN_08</t>
   </si>
   <si>
     <t>Verify login with special characters in the username</t>
   </si>
   <si>
-    <t>Login không thành công như dự kiến với user@#$%@example.com/Pass@123</t>
+    <t>user@#$%@example.com</t>
+  </si>
+  <si>
+    <t>error:Invalid email format!</t>
   </si>
   <si>
     <t>TC_LOGIN_09</t>
@@ -121,7 +139,10 @@
     <t>Verify login with a username exceeding the maximum length</t>
   </si>
   <si>
-    <t>Login không thành công như dự kiến với abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz@example.com/Pass@123</t>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz@example.com</t>
+  </si>
+  <si>
+    <t>error:Email is too long!</t>
   </si>
   <si>
     <t>TC_LOGIN_10</t>
@@ -130,19 +151,34 @@
     <t>Verify login with a password exceeding the maximum length</t>
   </si>
   <si>
-    <t>Login không thành công như dự kiến với user@example.com/Pass@123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789</t>
+    <t>Pass@123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789</t>
+  </si>
+  <si>
+    <t>error:Password is too long!</t>
   </si>
   <si>
     <t>TC_LOGIN_11</t>
   </si>
   <si>
+    <t>Verify login with email starting with a number</t>
+  </si>
+  <si>
+    <t>123user@example.com</t>
+  </si>
+  <si>
+    <t>error:Email cannot start with a number!</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_12</t>
+  </si>
+  <si>
     <t>Verify login with valid username and password</t>
   </si>
   <si>
+    <t>Success</t>
+  </si>
+  <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Successfully logged in and redirected to home screen</t>
   </si>
 </sst>
 </file>
@@ -195,21 +231,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F23" totalsRowShown="0">
-  <autoFilter ref="A1:F23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Result"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Status"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Note"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Duration (ms)"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,20 +518,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="64.140625" customWidth="1"/>
-    <col min="6" max="6" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="95" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1"/>
+    <col min="4" max="4" width="84.140625" customWidth="1"/>
+    <col min="5" max="5" width="61.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -540,223 +560,228 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="b">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>10829</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>10981</v>
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>10967</v>
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <v>10761</v>
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6">
-        <v>10083</v>
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7">
-        <v>8973</v>
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="F8">
-        <v>9778</v>
+      <c r="F8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <v>10245</v>
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10">
-        <v>10973</v>
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11">
-        <v>10912</v>
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12">
-        <v>9267</v>
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>